--- a/InputData/endo-learn/PDiBCpDoC/Perc Decline in Battery Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiBCpDoC/Perc Decline in Battery Cost per Doubling of Cap.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\PDiBCpDoC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="22035" windowHeight="11835"/>
   </bookViews>
@@ -15,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Source:</t>
-  </si>
-  <si>
-    <t>Perc Decline per Doubling</t>
   </si>
   <si>
     <t>Batteries</t>
@@ -35,17 +37,23 @@
     <t>New Energy Outlook 2018</t>
   </si>
   <si>
-    <t>Chapter 6, Page 2, Figure at bottom of column 2 (online)</t>
+    <t>https://bnef.turtl.co/story/neo2018</t>
   </si>
   <si>
-    <t>https://bnef.turtl.co/story/neo2018</t>
+    <t>Chapter 6, Page 2, Figure at bottom of column 2 (online), also reproduced below</t>
+  </si>
+  <si>
+    <t>Note that the graph only extends to 2030, not 2050</t>
+  </si>
+  <si>
+    <t>Perc Decline per Doubling (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +63,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,12 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,8 +115,60 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1524000"/>
+          <a:ext cx="10058400" cy="6506286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -145,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,47 +458,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -440,21 +516,23 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>0.18</v>
@@ -718,13 +796,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A621E23F-E31F-431F-ABA6-D0795F3999ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C5EA23A-544F-4807-BE83-CAC99BBD5C5B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A593C1D-BF5A-421D-A439-B472B631A522}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EEA7140-21A4-4AF9-9610-9AB0E11E9CE8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6CE235F-FA14-48FD-BC3F-207B15282130}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{098000C3-F887-4BF8-A1A7-525FB964CA26}"/>
 </file>